--- a/public/assets/template-import/template-kejuruan.xlsx
+++ b/public/assets/template-import/template-kejuruan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si-nilai\public\assets\template-import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\si_nilai_laravel\public\assets\template-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A78D76B-C9D2-4619-99E0-D0531C17EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD9AC62-D42A-40EC-AA7D-20E61413DC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F381F340-8E52-44E6-9203-4FA98487106B}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Nama Jurusan</t>
   </si>
   <si>
-    <t>Teknik Mesin</t>
-  </si>
-  <si>
-    <t>Rekayasa Perangkat Lunak</t>
+    <t>Singkatan</t>
   </si>
 </sst>
 </file>
@@ -82,10 +79,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,30 +401,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC71C79-87C4-4BFA-A38B-C9A48B560559}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/template-import/template-kejuruan.xlsx
+++ b/public/assets/template-import/template-kejuruan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\si_nilai_laravel\public\assets\template-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD9AC62-D42A-40EC-AA7D-20E61413DC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39AD49B-2896-4502-8649-08F6FEBB1A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F381F340-8E52-44E6-9203-4FA98487106B}"/>
+    <workbookView xWindow="-210" yWindow="11400" windowWidth="20730" windowHeight="11040" xr2:uid="{F381F340-8E52-44E6-9203-4FA98487106B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,11 +81,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,12 +404,12 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
